--- a/Others/Les mots.xlsx
+++ b/Others/Les mots.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igorg\Desktop\En France\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igorromero/NotesInGeneral/Others/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC61EAE-792C-4313-BD92-4A258F66B66E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8387C32D-9668-E842-9302-28584A1987EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FAB4D674-A391-401D-ACEA-E0147A97A104}"/>
+    <workbookView xWindow="59100" yWindow="-520" windowWidth="26880" windowHeight="14860" activeTab="2" xr2:uid="{FAB4D674-A391-401D-ACEA-E0147A97A104}"/>
   </bookViews>
   <sheets>
     <sheet name="MOTS" sheetId="1" r:id="rId1"/>
     <sheet name="PRONONCIATION" sheetId="2" r:id="rId2"/>
+    <sheet name="REMARQUES" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="94">
   <si>
     <t>Les Verbs</t>
   </si>
@@ -51,18 +52,12 @@
     <t>Les préposition</t>
   </si>
   <si>
-    <t>Aller</t>
-  </si>
-  <si>
     <t>Ir</t>
   </si>
   <si>
     <t>Pour</t>
   </si>
   <si>
-    <t>Les Pronoms</t>
-  </si>
-  <si>
     <t>Para</t>
   </si>
   <si>
@@ -75,9 +70,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>Les Mots</t>
-  </si>
-  <si>
     <t>Les mots</t>
   </si>
   <si>
@@ -135,18 +127,12 @@
     <t>Meia</t>
   </si>
   <si>
-    <t>Deux</t>
-  </si>
-  <si>
     <t>Cinq</t>
   </si>
   <si>
     <t>Dix</t>
   </si>
   <si>
-    <t>Pantalons</t>
-  </si>
-  <si>
     <t>Calça</t>
   </si>
   <si>
@@ -174,15 +160,9 @@
     <t>Suéter</t>
   </si>
   <si>
-    <t>Bonne</t>
-  </si>
-  <si>
     <t>Toca</t>
   </si>
   <si>
-    <t>Froid</t>
-  </si>
-  <si>
     <t>Climat</t>
   </si>
   <si>
@@ -195,9 +175,6 @@
     <t>Guarda-chuvas</t>
   </si>
   <si>
-    <t>Mettre</t>
-  </si>
-  <si>
     <t>Irrégulier</t>
   </si>
   <si>
@@ -253,12 +230,6 @@
   </si>
   <si>
     <t>Finissant</t>
-  </si>
-  <si>
-    <t>"E"</t>
-  </si>
-  <si>
-    <t>"Ent"</t>
   </si>
   <si>
     <t>Des exemples</t>
@@ -280,35 +251,340 @@
     </r>
   </si>
   <si>
-    <t>France, valise, robe, écharpe</t>
-  </si>
-  <si>
     <t>Mettent</t>
   </si>
   <si>
     <r>
-      <t>Les mots avec</t>
+      <t>Alle</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>r</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Le</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
+        <u/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Mo</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>ts</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Le</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Chiffres</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Le</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Prono</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>ms</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Pantalon</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Deu</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>x</t>
+    </r>
+  </si>
+  <si>
+    <t>Bonnet</t>
+  </si>
+  <si>
+    <r>
+      <t>Froi</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>d</t>
+    </r>
+  </si>
+  <si>
+    <t>Mettre (Je mets)</t>
+  </si>
+  <si>
+    <t>Trois</t>
+  </si>
+  <si>
+    <t>Six</t>
+  </si>
+  <si>
+    <t>Septe</t>
+  </si>
+  <si>
+    <t>France, valise, robe, écharpe, parapluie</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>ne prononce pas</t>
+  </si>
+  <si>
+    <t>"E" (à la fin)</t>
+  </si>
+  <si>
+    <t>"Ent" (à la fin)</t>
+  </si>
+  <si>
+    <t>En portugais</t>
+  </si>
+  <si>
+    <t>France, valis, rob, echarp, paraplui</t>
+  </si>
+  <si>
+    <t>Met</t>
+  </si>
+  <si>
+    <r>
+      <t>Le</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> son "e"</t>
-    </r>
+      <t xml:space="preserve"> mo</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>ts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ave</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> _ (souligne [sublinhado]) ne so</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pa</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> prononcé</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>La plupart [maioria] des mots ne prononcent pas la consonnne [consoante] finale</t>
+  </si>
+  <si>
+    <t>La plupar de mô non prononc pa la conson finala</t>
+  </si>
+  <si>
+    <t>Remarques</t>
+  </si>
+  <si>
+    <t>Mots</t>
+  </si>
+  <si>
+    <t>Palavra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -353,6 +629,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -385,25 +687,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="27">
     <dxf>
       <font>
         <strike val="0"/>
@@ -417,20 +729,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -524,12 +823,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2AE4C2E-97BE-4C04-ADD6-9F313EDB07B6}" name="Tabela1" displayName="Tabela1" ref="A3:C5" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2AE4C2E-97BE-4C04-ADD6-9F313EDB07B6}" name="Tabela1" displayName="Tabela1" ref="A3:C5" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A3:C5" xr:uid="{DE50B4A7-4C04-4061-BFC9-D21DCA7EB26B}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{70AB697F-58B6-4C53-AA98-9E3B61B84DAE}" name="Les verbs" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{B48490D0-DB6A-4087-A2EC-9CDC3D4C332B}" name="Régulier / Irrégulier" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{AC2505BF-3DBC-49D8-9E26-5B826C64BF30}" name="Traduction" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{70AB697F-58B6-4C53-AA98-9E3B61B84DAE}" name="Les verbs" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{B48490D0-DB6A-4087-A2EC-9CDC3D4C332B}" name="Régulier / Irrégulier" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{AC2505BF-3DBC-49D8-9E26-5B826C64BF30}" name="Traduction" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -539,85 +838,76 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DBB2061F-7403-403E-A623-5FC545869920}" name="Tabela3" displayName="Tabela3" ref="E3:F6" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="E3:F6" xr:uid="{AFF1B087-AA0E-4C13-993F-DD7C7D5AF386}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{654F8279-A79E-446B-9A10-6EFC9353BADC}" name="Les préposition" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{68F141E5-BCFF-45F1-8C42-A0469E916D71}" name="Traduction" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{654F8279-A79E-446B-9A10-6EFC9353BADC}" name="Les préposition" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{68F141E5-BCFF-45F1-8C42-A0469E916D71}" name="Traduction" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{639031FC-0CD0-43F2-B20A-3BB1FCEFA77F}" name="Tabela4" displayName="Tabela4" ref="H3:I10" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{639031FC-0CD0-43F2-B20A-3BB1FCEFA77F}" name="Tabela4" displayName="Tabela4" ref="H3:I10" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="H3:I10" xr:uid="{A7CEDB70-582F-4892-A71F-6D74CBFCFAC6}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5DC6A3AF-3623-415F-97C4-37DD0B0F9AB0}" name="Les pronoms sujets" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{313A0262-84D4-4AC5-B30D-31A57CCF3126}" name="Traduction" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{5DC6A3AF-3623-415F-97C4-37DD0B0F9AB0}" name="Les pronoms sujets" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{313A0262-84D4-4AC5-B30D-31A57CCF3126}" name="Traduction" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{403D548B-D816-4EFA-BFF5-5828BF5CD7DA}" name="Tabela6" displayName="Tabela6" ref="H12:I13" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{403D548B-D816-4EFA-BFF5-5828BF5CD7DA}" name="Tabela6" displayName="Tabela6" ref="H12:I13" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="H12:I13" xr:uid="{0684F71B-BAB8-4FC3-8C0F-D69174411B38}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D4F58EA4-265A-4A28-9DA7-3FA72CB9564E}" name="Les pronoms tonique" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{3181326D-0C0A-46E8-A88E-C5721D689C0A}" name="Traduction" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{D4F58EA4-265A-4A28-9DA7-3FA72CB9564E}" name="Les pronoms tonique" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{3181326D-0C0A-46E8-A88E-C5721D689C0A}" name="Traduction" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{99F915A2-E5D6-49AD-82A9-AAF27B055FCE}" name="Tabela8" displayName="Tabela8" ref="K3:M15" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="K3:M15" xr:uid="{1198EAD1-C6E9-405F-80A9-6F50EAEE7965}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{99F915A2-E5D6-49AD-82A9-AAF27B055FCE}" name="Tabela8" displayName="Tabela8" ref="K3:M17" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="K3:M17" xr:uid="{1198EAD1-C6E9-405F-80A9-6F50EAEE7965}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0ED3D45D-EFBC-489C-8054-BFE156327E84}" name="Les mots" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{75B82DD3-2882-4A1E-966A-4C5299BE48AE}" name="Catégorie" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{7CA4CA1D-75C7-4FC6-8FA1-AB9CBFA06CF6}" name="Traduction" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{0ED3D45D-EFBC-489C-8054-BFE156327E84}" name="Les mots" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{75B82DD3-2882-4A1E-966A-4C5299BE48AE}" name="Catégorie" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{7CA4CA1D-75C7-4FC6-8FA1-AB9CBFA06CF6}" name="Traduction" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{C6F151B5-4A2A-4506-9D29-1A1E1AD59AAC}" name="Tabela9" displayName="Tabela9" ref="O3:P8" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="O3:P8" xr:uid="{D42E87ED-C662-4B46-8E4A-4B7EFAC0EB26}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O4:P8">
-    <sortCondition ref="P3:P8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{C6F151B5-4A2A-4506-9D29-1A1E1AD59AAC}" name="Tabela9" displayName="Tabela9" ref="O3:P13" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="O3:P13" xr:uid="{D42E87ED-C662-4B46-8E4A-4B7EFAC0EB26}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O4:P13">
+    <sortCondition ref="P3:P13"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3E47087F-7C50-43E3-947D-4A338729946E}" name="Les Chiffres" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{11E4DD6C-07F5-43F3-9A54-F5C9587198FF}" name="Traduction" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{3E47087F-7C50-43E3-947D-4A338729946E}" name="Les Chiffres" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{11E4DD6C-07F5-43F3-9A54-F5C9587198FF}" name="Traduction" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{07992851-DC1D-4BA4-BBA3-4035EE6B60EC}" name="Tabela10" displayName="Tabela10" ref="A2:B4" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A2:B4" xr:uid="{0D98C976-8E55-4C10-B76F-EECF3484D2EF}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{07992851-DC1D-4BA4-BBA3-4035EE6B60EC}" name="Tabela10" displayName="Tabela10" ref="A4:D6" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A4:D6" xr:uid="{0D98C976-8E55-4C10-B76F-EECF3484D2EF}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{D461DD1A-ED0B-468B-B1D2-DC2C1D29FB6D}" name="Finissant"/>
+    <tableColumn id="3" xr3:uid="{495751AD-C353-2D4F-9340-9713846117C6}" name="Action"/>
     <tableColumn id="2" xr3:uid="{4ECA0F46-F006-42CF-A3E9-63653BE64D35}" name="Des exemples"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{4056DD9E-F7A3-486E-B0F6-22D19074DB73}" name="Tabela1012" displayName="Tabela1012" ref="D2:E4" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="D2:E4" xr:uid="{AA3ED8C3-FF3C-4142-81E9-F6F049B36C7A}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{DC3558EF-0D2D-4B91-B498-4D5291E5F8A7}" name="Finissant"/>
-    <tableColumn id="2" xr3:uid="{52FB5570-1767-4858-895B-E8832E766306}" name="Des exemples"/>
+    <tableColumn id="4" xr3:uid="{731565C1-1D76-1645-BD36-E19B1034C585}" name="En portugais"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -913,33 +1203,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF14E2DA-1F61-4D3E-BB06-34F5F1D5F3A2}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" customWidth="1"/>
     <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
-    <col min="10" max="10" width="2.77734375" customWidth="1"/>
-    <col min="11" max="11" width="16.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="2.83203125" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" customWidth="1"/>
     <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.77734375" customWidth="1"/>
-    <col min="15" max="15" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.83203125" customWidth="1"/>
+    <col min="15" max="15" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -948,21 +1238,21 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
@@ -974,274 +1264,320 @@
         <v>2</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P4" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="P5" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="K6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="2" t="s">
+      <c r="L7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="2">
+      <c r="O7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="H7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
       <c r="H8" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P8" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="O9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P9" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O11" s="2"/>
+      <c r="P11" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="H12" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="K13" s="2" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P13" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="K14" s="2" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="K15" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1259,71 +1595,109 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8936E1-71F9-4C33-ABC6-3E0FD3DD2C34}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" t="s">
-        <v>78</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A3:C3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <tableParts count="2">
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A34F34-F241-FA4B-B42D-5C931D273FA3}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="119" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="63" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>